--- a/2.6.Cross-table-and-scatter-plot-exercise.xlsx
+++ b/2.6.Cross-table-and-scatter-plot-exercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Downloads/The Data Science Course 2021 - All Resources/Part_3_Statistics/S15_L80/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Desktop/Excel Work/365-Data-Science-Course-Excel-Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ADF081-FAB2-CB4D-84DB-663BEA64436A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB8090F-6331-BA44-955E-8765E6486036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="3840" windowWidth="23040" windowHeight="11660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="1040" windowWidth="24280" windowHeight="16960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross table" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="45" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Scatter plot</t>
   </si>
@@ -260,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -296,7 +296,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -996,669 +995,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[2.6.Cross-table-and-scatter-plot-exercise.xlsx]Sheet1!PivotTable12</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$R$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of Unemployment</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$Q$12:$Q$18</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>18-25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25-35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35-45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45-55</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>55-65</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65+</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$R$12:$R$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-785A-AD46-8D52-5F3BF3916AF7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$S$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of Employment</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$Q$12:$Q$18</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>18-25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25-35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35-45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45-55</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>55-65</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65+</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$S$12:$S$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-785A-AD46-8D52-5F3BF3916AF7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$T$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$Q$12:$Q$18</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>18-25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25-35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35-45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45-55</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>55-65</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65+</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$T$12:$T$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-785A-AD46-8D52-5F3BF3916AF7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1243995823"/>
-        <c:axId val="878816207"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1243995823"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="878816207"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="878816207"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1243995823"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2600,7 +1936,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3553,1883 +2889,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Alphabet (GOOGL)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$C$2:$C$105</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
-                <c:pt idx="0">
-                  <c:v>116.15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>116.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>116.61</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>117.91</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>118.99</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>119.11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>119.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>119.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>119.04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>119.99</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>119.78</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>120.08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>119.97</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>121.88</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>121.94</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>121.95</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>121.63</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>121.35</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>128.75</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>128.53</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>129.08000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>130.29</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>131.53</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>132.04</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>132.41999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>132.12</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>133.29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>135.02000000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>135.51</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>135.34</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>135.72</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>136.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>137.11000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>136.53</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>136.66</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>136.93</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>136.99</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>139.79</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>138.96</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>139.78</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>139.34</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>139.52000000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>138.68</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>139.13999999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>139.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>138.99</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>140.46</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>140.69</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>139.99</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>141.46</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>139.84</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>141.41999999999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>140.91999999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>140.63999999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>140.88</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>143.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>144.12</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>143.93</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>143.66</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>143.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>144.77000000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>144.02000000000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>143.66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>143.34</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>143.16999999999999</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>141.63</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>141.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>141.05000000000001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>141.83000000000001</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>141.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>140.68</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>142.44</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>142.27000000000001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>143.63999999999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>144.53</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>143.68</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>143.79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>143.65</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>146.58000000000001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>147.51</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>147.06</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>146.53</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>148.96</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>153.01</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>153.99</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>153.26</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>153.94999999999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>156.1</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>155.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>155.47</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>150.25</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>152.54</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>153.06</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>153.99</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>153.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>153.34</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>153.87</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>153.61000000000001</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>153.66999999999999</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>152.76</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>153.18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$D$2:$D$105</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
-                <c:pt idx="0">
-                  <c:v>808.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>807.77</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>813.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>825.21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>827.18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>826.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>829.86</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>829.53</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>830.94</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>827.46</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>829.02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>824.37</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>828.17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>844.43</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>849.53</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>858.45</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>856.98</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>845.03</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>823.83</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>820.19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>815.24</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>818.26</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>820.13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>821.62</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>829.23</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>829.88</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>830.06</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>834.85</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>838.96</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>840.03</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>837.32</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>842.17</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>846.55</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>849.27</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>851.36</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>851</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>847.81</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>849.67</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>844.93</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>856.75</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>849.85</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>849.08</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>847.27</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>851.15</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>853.64</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>857.84</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>861.4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>864.58</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>865.91</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>868.39</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>872.37</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>867.91</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>850.14</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>849.8</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>839.65</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>835.14</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>838.51</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>840.63</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>849.87</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>849.48</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>847.8</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>856.75</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>852.57</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>848.91</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>845.1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>842.1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>841.7</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>839.88</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>841.46</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>840.18</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>855.13</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>853.99</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>856.51</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>860.08</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>858.95</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>878.93</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>888.84</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>889.14</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>891.44</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>924.52</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>932.82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>937.09</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>948.45</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>954.72</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>950.28</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>958.69</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>956.71</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>954.84</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>955.89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>955.14</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>959.22</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>964.61</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>942.17</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>950.5</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>954.65</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>964.07</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>970.55</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>977.61</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>991.86</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>993.27</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>996.17</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>987.09</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>988.29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-03E7-BF41-82D7-5A512D69210C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1985130768"/>
-        <c:axId val="1985236032"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1985130768"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1985236032"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1985236032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="750"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1985130768"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bank of America (BAC)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$C$2:$C$105</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
-                <c:pt idx="0">
-                  <c:v>116.15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>116.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>116.61</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>117.91</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>118.99</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>119.11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>119.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>119.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>119.04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>119.99</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>119.78</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>120.08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>119.97</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>121.88</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>121.94</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>121.95</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>121.63</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>121.35</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>128.75</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>128.53</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>129.08000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>130.29</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>131.53</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>132.04</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>132.41999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>132.12</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>133.29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>135.02000000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>135.51</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>135.34</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>135.72</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>136.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>137.11000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>136.53</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>136.66</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>136.93</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>136.99</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>139.79</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>138.96</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>139.78</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>139.34</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>139.52000000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>138.68</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>139.13999999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>139.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>138.99</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>140.46</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>140.69</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>139.99</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>141.46</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>139.84</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>141.41999999999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>140.91999999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>140.63999999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>140.88</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>143.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>144.12</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>143.93</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>143.66</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>143.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>144.77000000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>144.02000000000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>143.66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>143.34</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>143.16999999999999</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>141.63</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>141.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>141.05000000000001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>141.83000000000001</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>141.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>140.68</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>142.44</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>142.27000000000001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>143.63999999999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>144.53</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>143.68</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>143.79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>143.65</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>146.58000000000001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>147.51</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>147.06</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>146.53</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>148.96</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>153.01</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>153.99</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>153.26</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>153.94999999999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>156.1</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>155.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>155.47</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>150.25</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>152.54</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>153.06</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>153.99</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>153.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>153.34</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>153.87</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>153.61000000000001</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>153.66999999999999</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>152.76</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>153.18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$E$2:$E$105</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
-                <c:pt idx="0">
-                  <c:v>22.53</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.68</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.68</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.55</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.94</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.92</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22.63</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22.53</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.56</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22.95</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>23.37</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23.44</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.36</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22.95</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22.64</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22.89</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.72</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.29</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23.12</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>22.9</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>22.67</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23.12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>23.08</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>23.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>24.06</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>24.58</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>24.58</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>24.52</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>24.78</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>24.79</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>24.58</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>24.23</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>24.57</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>24.68</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>25.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>25.23</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>25.44</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>25.25</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>25.21</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>25.26</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>25.35</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>25.31</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>25.3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>25.32</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>25.18</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>25.22</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>24.86</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>24.44</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>23.02</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>22.94</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>23.07</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>23.12</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>23.03</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>23.48</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>23.35</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>23.87</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>23.59</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>23.59</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>23.44</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>23.17</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>23.26</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>23.16</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>23.02</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>22.92</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>22.65</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>22.34</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>22.81</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>22.71</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>22.74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>23.07</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>22.71</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>23.63</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>23.98</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>23.89</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>23.65</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>23.34</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>23.61</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>23.53</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>23.77</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>23.85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>23.74</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>23.96</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>23.98</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>24.15</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>24.07</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>24.06</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>23.99</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>22.57</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>22.74</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>23.05</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>23.04</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>23.39</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>23.36</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>23.25</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>23.24</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>22.91</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>22.41</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>22.63</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-124E-8541-988B-1BD68AA6B48F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2010579504"/>
-        <c:axId val="2026560128"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2010579504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2026560128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2026560128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2010579504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5511,126 +2970,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6174,509 +3513,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7192,1039 +4028,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8778,42 +4582,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>149411</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>129988</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1269999</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>153893</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77E7730-485D-BEAF-E91F-A35B1966458E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8821,16 +4589,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>5772</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276705</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>461818</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>732751</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>16934</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8857,16 +4625,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>669637</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>154133</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>263237</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>92672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>198005</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>621338</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>164787</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8886,78 +4654,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>469447</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>170543</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>10885</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01FAE584-D94E-0D3F-928F-888D15634B14}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52D585EE-E2E9-D2C6-B5E1-FB32CBF2BE49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9044,112 +4740,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C77A1C9-DD8D-DF49-9966-0A89E8EEFE35}" name="PivotTable12" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="Q11:T18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of Unemployment" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Employment" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Total" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C6B9A45-A073-0E41-B993-7BF4068741D3}" name="PivotTable2" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C6B9A45-A073-0E41-B993-7BF4068741D3}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="H13:K20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -9259,9 +4850,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9299,7 +4890,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9405,7 +4996,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9547,7 +5138,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9717,10 +5308,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123678F4-DD96-424B-B9B8-CB9BDFC3B2F2}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9748,7 +5339,7 @@
     <col min="28" max="28" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -9762,7 +5353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -9777,7 +5368,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -9792,7 +5383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -9807,7 +5398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -9822,7 +5413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -9837,7 +5428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -9852,35 +5443,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="R11" t="s">
-        <v>35</v>
-      </c>
-      <c r="S11" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="R12" s="17">
-        <v>40</v>
-      </c>
-      <c r="S12" s="17">
-        <v>60</v>
-      </c>
-      <c r="T12" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H13" s="15" t="s">
         <v>34</v>
       </c>
@@ -9893,20 +5456,8 @@
       <c r="K13" t="s">
         <v>38</v>
       </c>
-      <c r="Q13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="R13" s="17">
-        <v>15</v>
-      </c>
-      <c r="S13" s="17">
-        <v>85</v>
-      </c>
-      <c r="T13" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H14" s="16" t="s">
         <v>27</v>
       </c>
@@ -9919,20 +5470,8 @@
       <c r="K14">
         <v>100</v>
       </c>
-      <c r="Q14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14" s="17">
-        <v>5</v>
-      </c>
-      <c r="S14" s="17">
-        <v>95</v>
-      </c>
-      <c r="T14" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H15" s="16" t="s">
         <v>28</v>
       </c>
@@ -9945,20 +5484,8 @@
       <c r="K15">
         <v>100</v>
       </c>
-      <c r="Q15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="R15" s="17">
-        <v>3</v>
-      </c>
-      <c r="S15" s="17">
-        <v>97</v>
-      </c>
-      <c r="T15" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H16" s="16" t="s">
         <v>29</v>
       </c>
@@ -9971,20 +5498,8 @@
       <c r="K16">
         <v>100</v>
       </c>
-      <c r="Q16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R16" s="17">
-        <v>3</v>
-      </c>
-      <c r="S16" s="17">
-        <v>97</v>
-      </c>
-      <c r="T16" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="8:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H17" s="16" t="s">
         <v>30</v>
       </c>
@@ -9997,20 +5512,8 @@
       <c r="K17">
         <v>100</v>
       </c>
-      <c r="Q17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" s="17">
-        <v>0</v>
-      </c>
-      <c r="S17" s="17">
-        <v>100</v>
-      </c>
-      <c r="T17" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="8:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H18" s="16" t="s">
         <v>31</v>
       </c>
@@ -10023,20 +5526,8 @@
       <c r="K18">
         <v>100</v>
       </c>
-      <c r="Q18" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="R18" s="17">
-        <v>66</v>
-      </c>
-      <c r="S18" s="17">
-        <v>534</v>
-      </c>
-      <c r="T18" s="17">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="19" spans="8:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H19" s="16" t="s">
         <v>32</v>
       </c>
@@ -10050,7 +5541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="8:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H20" s="16" t="s">
         <v>33</v>
       </c>
@@ -10066,7 +5557,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10074,7 +5565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:G163"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -11857,15 +7348,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FA5326-50C9-0C45-ABC7-A826DB0662C4}">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W50" sqref="W50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
         <v>10</v>
@@ -11880,7 +7371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="8">
         <v>42738</v>
@@ -11895,7 +7386,7 @@
         <v>22.53</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8">
         <v>42739</v>
@@ -11910,7 +7401,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="8">
         <v>42740</v>
@@ -11925,7 +7416,7 @@
         <v>22.68</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="8">
         <v>42741</v>
@@ -11940,7 +7431,7 @@
         <v>22.68</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="8">
         <v>42744</v>
@@ -11954,11 +7445,11 @@
       <c r="E6" s="1">
         <v>22.55</v>
       </c>
-      <c r="L6" t="s">
+      <c r="H6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8">
         <v>42745</v>
@@ -11973,7 +7464,7 @@
         <v>22.94</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8">
         <v>42746</v>
@@ -11988,7 +7479,7 @@
         <v>23.07</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="8">
         <v>42747</v>
@@ -12003,7 +7494,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="8">
         <v>42748</v>
@@ -12018,7 +7509,7 @@
         <v>23.01</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="8">
         <v>42752</v>
@@ -12033,7 +7524,7 @@
         <v>22.05</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="8">
         <v>42753</v>
@@ -12048,7 +7539,7 @@
         <v>22.63</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="8">
         <v>42754</v>
@@ -12063,7 +7554,7 @@
         <v>22.53</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="8">
         <v>42755</v>
@@ -12078,7 +7569,7 @@
         <v>22.64</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="8">
         <v>42758</v>
@@ -12093,7 +7584,7 @@
         <v>22.56</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="8">
         <v>42759</v>
@@ -12108,7 +7599,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="8">
         <v>42760</v>
@@ -12123,7 +7614,7 @@
         <v>23.37</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="8">
         <v>42761</v>
@@ -12138,7 +7629,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="8">
         <v>42762</v>
@@ -12153,7 +7644,7 @@
         <v>23.36</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="8">
         <v>42765</v>
@@ -12168,7 +7659,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="8">
         <v>42766</v>
@@ -12183,7 +7674,7 @@
         <v>22.64</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="8">
         <v>42767</v>
@@ -12198,7 +7689,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="8">
         <v>42768</v>
@@ -12212,11 +7703,8 @@
       <c r="E23" s="1">
         <v>22.72</v>
       </c>
-      <c r="L23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="8">
         <v>42769</v>
@@ -12231,7 +7719,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="8">
         <v>42772</v>
@@ -12246,7 +7734,7 @@
         <v>23.12</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="8">
         <v>42773</v>
@@ -12261,7 +7749,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="8">
         <v>42774</v>
@@ -12275,8 +7763,11 @@
       <c r="E27" s="1">
         <v>22.67</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="8">
         <v>42775</v>
@@ -12291,7 +7782,7 @@
         <v>23.12</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="8">
         <v>42776</v>
@@ -12306,7 +7797,7 @@
         <v>23.08</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="8">
         <v>42779</v>
@@ -12321,7 +7812,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="8">
         <v>42780</v>
@@ -12336,7 +7827,7 @@
         <v>24.06</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="8">
         <v>42781</v>
